--- a/media/kegiatan/binaan_teknis/exported/REKAPITULASI PEMBINAAN TEKNIS BNNK & BNNP TAHUN 2024.xlsx
+++ b/media/kegiatan/binaan_teknis/exported/REKAPITULASI PEMBINAAN TEKNIS BNNK & BNNP TAHUN 2024.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,18 +450,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
-    <col width="31.2" customWidth="1" min="2" max="2"/>
+    <col width="32.5" customWidth="1" min="2" max="2"/>
     <col width="22.1" customWidth="1" min="3" max="3"/>
     <col width="28.6" customWidth="1" min="4" max="4"/>
     <col width="6.5" customWidth="1" min="5" max="5"/>
     <col width="15.6" customWidth="1" min="6" max="6"/>
-    <col width="27.3" customWidth="1" min="7" max="7"/>
+    <col width="28.6" customWidth="1" min="7" max="7"/>
     <col width="7.800000000000001" customWidth="1" min="8" max="8"/>
     <col width="10.4" customWidth="1" min="9" max="9"/>
     <col width="20.8" customWidth="1" min="10" max="10"/>
-    <col width="27.3" customWidth="1" min="11" max="11"/>
+    <col width="67.60000000000001" customWidth="1" min="11" max="11"/>
     <col width="32.5" customWidth="1" min="12" max="12"/>
-    <col width="28.6" customWidth="1" min="13" max="13"/>
+    <col width="27.3" customWidth="1" min="13" max="13"/>
     <col width="40" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>BNN Pusat</t>
+          <t xml:space="preserve">BNN Kota Jakarta Utara </t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -561,39 +561,39 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>45378</v>
+        <v>45386</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>PUSAT</t>
+          <t>Masyarakat</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>qwe - qwe</t>
+          <t>budi - cimahi, rizki - cimahi, ilham - cimahi</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>Positif - 0 Negatif - 1</t>
+          <t>Positif - 0 Negatif - 3</t>
         </is>
       </c>
       <c r="M5" s="5" t="inlineStr">
         <is>
-          <t>PUSAT</t>
+          <t>tidak ada</t>
         </is>
       </c>
       <c r="N5" s="4">
-        <f>HYPERLINK("http://103.210.54.17:8080/uploads/kegiatan/psm/tes_urine_deteksi_dini/satker_bnn_202403261338_wWq2xe6.csv","Dokumentasi")</f>
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/psm/tes_urine_deteksi_dini/Screen_Shot_2024-04-01_at_11.06.20_Zmn1bb4.png","Dokumentasi")</f>
         <v/>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BNNP Jawa Tengah</t>
+          <t xml:space="preserve">BNN Kota Tegal </t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -618,48 +618,166 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>45376</v>
+        <v>45635</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>Rerum consequatur M</t>
+          <t>Et modi dolorem occa</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Tempor eligendi quis - Ut et dolorum quis n</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Positif - 1 Negatif - 0</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Ut elit tempora seq</t>
+        </is>
+      </c>
+      <c r="N6" s="4">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/psm/tes_urine_deteksi_dini/SheetJSTable_vq1QBrs.xlsx","Dokumentasi")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>BNN Pusat</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Dikirim ke BNN Pusat</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>lingkungan</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>123 - 321</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>Positif - 0 Negatif - 1</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="N7" s="4">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/psm/tes_urine_deteksi_dini/Screen_Shot_2024-04-01_at_11.06.20_gylLbUQ.png","Dokumentasi")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>BNNP DKI Jakarta</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Dikirim ke BNN Pusat</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>45386</v>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>masyarakat</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>2 - 1, 1 - 2</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>Positif - 1 Negatif - 1</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>In qui asperiores et</t>
-        </is>
-      </c>
-      <c r="N6" s="4">
-        <f>HYPERLINK("http://103.210.54.17:8080/uploads/kegiatan/psm/asistensi/template1_zvtEFu5.xlsx","Dokumentasi")</f>
+      <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>bayu - jakarta, rahmady - jakarta, hanif - jakarta</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Positif - 0 Negatif - 3</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>tidak ada</t>
+        </is>
+      </c>
+      <c r="N8" s="4">
+        <f>HYPERLINK("http://103.210.54.17:8000/uploads/kegiatan/psm/tes_urine_deteksi_dini/Screen_Shot_2024-04-01_at_11.06.20_qqqY26l.png","Dokumentasi")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A8"/>
+    <mergeCell ref="B8"/>
     <mergeCell ref="A6"/>
-    <mergeCell ref="D6"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="B7"/>
     <mergeCell ref="B6"/>
-    <mergeCell ref="C6"/>
+    <mergeCell ref="D8"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="A5"/>
   </mergeCells>
